--- a/Week-5-Results/time2.xlsx
+++ b/Week-5-Results/time2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amyta\OneDrive - Georgia Institute of Technology\Documents\mc-chess\Week-5-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B9F73-DB2B-440C-9F24-2DAC96BB41B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC2779F-866F-4EC2-9EB2-006DA6677CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="18684" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="3564" windowWidth="22668" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time2" sheetId="1" r:id="rId1"/>
@@ -2896,7 +2896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
